--- a/model data.xlsx
+++ b/model data.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA1C3C-7DA4-4DEB-90B3-FF7E2DEA7769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F4AA2-023C-4B38-ACAA-A084A489A200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Route Information" sheetId="1" r:id="rId1"/>
     <sheet name="Order Information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -851,13 +859,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="69" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -934,7 +946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1009,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1385,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1535,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1611,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1687,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1764,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1841,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2145,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2370,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2445,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2520,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2595,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2824,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3128,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3203,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3432,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3507,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3659,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3888,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3963,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4040,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4115,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4192,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4267,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4344,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4496,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4650,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4739,13 +4751,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBB6D8F-4709-427A-AB8F-ADB062E73CFD}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>70</v>
       </c>
@@ -4792,7 +4807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4839,7 +4854,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4886,7 +4901,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4933,7 +4948,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -4980,7 +4995,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -5027,7 +5042,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -5074,7 +5089,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -5121,7 +5136,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
